--- a/Parsing_characteristis_and_photo/Фиеста-Керамика 13.12.24.xlsx
+++ b/Parsing_characteristis_and_photo/Фиеста-Керамика 13.12.24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC41E76-4810-40E5-B440-F2EB78F8DF0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D88BE1-9D4B-4485-9028-9F34591199C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="342">
   <si>
     <t>С фруктами и едой</t>
   </si>
@@ -773,24 +773,159 @@
     <t>Вес упаковки</t>
   </si>
   <si>
+    <t>https://3dplitka.ru/product-1002005/</t>
+  </si>
+  <si>
+    <t>Фиеста-Керамика</t>
+  </si>
+  <si>
+    <t>ITC ceramic</t>
+  </si>
+  <si>
+    <t>Agate</t>
+  </si>
+  <si>
+    <t>ITC Agate Monstera Polished 60x120</t>
+  </si>
+  <si>
+    <t>Для ванной, Для гостиной, Для коридора, Для кухни</t>
+  </si>
+  <si>
+    <t>разноцветная</t>
+  </si>
+  <si>
+    <t>Разноцветная</t>
+  </si>
+  <si>
+    <t>полированная, ректифицированная</t>
+  </si>
+  <si>
+    <t>под камень, травертин, сланец, гранит</t>
+  </si>
+  <si>
+    <t>прямоугольник</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Группа BIa – влагопоглощение – Eb ≤ 0,5%</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>3698</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-1001998/</t>
+  </si>
+  <si>
+    <t>ITC Agate Blue Polished 60x120</t>
+  </si>
+  <si>
+    <t>синий</t>
+  </si>
+  <si>
+    <t>Оттенки синего</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-1002002/</t>
+  </si>
+  <si>
+    <t>ITC Agate Green Polished 60x120</t>
+  </si>
+  <si>
+    <t>зеленый</t>
+  </si>
+  <si>
+    <t>Оттенки зеленого</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-1002000/</t>
+  </si>
+  <si>
+    <t>ITC Agate Coffe Polished 60x120</t>
+  </si>
+  <si>
+    <t>коричневый</t>
+  </si>
+  <si>
+    <t>Оттенки коричневого</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-1002003/</t>
+  </si>
+  <si>
+    <t>ITC Agate Grey Polished 60x120</t>
+  </si>
+  <si>
+    <t>серый</t>
+  </si>
+  <si>
+    <t>Оттенки серого</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-1002004/</t>
+  </si>
+  <si>
+    <t>ITC Agate Lumiere Polished 60x120</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-1002007/</t>
+  </si>
+  <si>
+    <t>ITC Agate Silver Polished 60x120</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-1002006/</t>
+  </si>
+  <si>
+    <t>ITC Agate Sabble Polished 60x120</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-1002001/</t>
+  </si>
+  <si>
+    <t>ITC Agate Dark Polished 60x120</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-1002008/</t>
+  </si>
+  <si>
+    <t>ITC Agate Volumes Polished 60x120</t>
+  </si>
+  <si>
     <t>https://3dplitka.ru/product-1002009/</t>
   </si>
   <si>
-    <t>Фиеста-Керамика</t>
-  </si>
-  <si>
-    <t>ITC ceramic</t>
-  </si>
-  <si>
     <t>Foresta</t>
   </si>
   <si>
     <t>ITC Foresta Beige Matt Carving 60x120</t>
   </si>
   <si>
-    <t>Для ванной, Для гостиной, Для коридора, Для кухни</t>
-  </si>
-  <si>
     <t>бежевый</t>
   </si>
   <si>
@@ -803,37 +938,67 @@
     <t>под дерево</t>
   </si>
   <si>
-    <t>прямоугольник</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>Группа BIa – влагопоглощение – Eb ≤ 0,5%</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>3698</t>
+    <t>https://3dplitka.ru/product-1002011/</t>
+  </si>
+  <si>
+    <t>ITC Foresta Miel Matt Carving 60x120</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-1002012/</t>
+  </si>
+  <si>
+    <t>ITC Foresta Magica Beige Matt Carving 60x120</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-1002013/</t>
+  </si>
+  <si>
+    <t>ITC Foresta Magica Miel Matt Carving 60x120</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-1002014/</t>
+  </si>
+  <si>
+    <t>Onice</t>
+  </si>
+  <si>
+    <t>ITC Onice Beige Polished 60x120</t>
+  </si>
+  <si>
+    <t>под оникс</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4270</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-1002016/</t>
+  </si>
+  <si>
+    <t>Paola</t>
+  </si>
+  <si>
+    <t>ITC Paola Bianco Polished 60x120</t>
+  </si>
+  <si>
+    <t>белый</t>
+  </si>
+  <si>
+    <t>Белая</t>
+  </si>
+  <si>
+    <t>под мрамор</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-1002018/</t>
+  </si>
+  <si>
+    <t>ITC Paola Bali Bianco Polished Carving 60x120</t>
+  </si>
+  <si>
+    <t>Белая, Оттенки зеленого, Оттенки серого, Разноцветная</t>
   </si>
   <si>
     <t>Фиеста-Керамика 13.12.24</t>
@@ -891,15 +1056,6 @@
   </si>
   <si>
     <t>Наличие</t>
-  </si>
-  <si>
-    <t>Agate</t>
-  </si>
-  <si>
-    <t>Onice</t>
-  </si>
-  <si>
-    <t>Paola</t>
   </si>
 </sst>
 </file>
@@ -2105,10 +2261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS43"/>
+  <dimension ref="A1:AS67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -2142,8 +2298,8 @@
     <col min="40" max="41" width="9.3984375" style="24" customWidth="1"/>
     <col min="42" max="43" width="9.1328125" style="28" customWidth="1"/>
     <col min="44" max="44" width="13.1328125" style="28" customWidth="1"/>
-    <col min="45" max="58" width="9.1328125" style="29" customWidth="1"/>
-    <col min="59" max="16384" width="9.1328125" style="29"/>
+    <col min="45" max="59" width="9.1328125" style="29" customWidth="1"/>
+    <col min="60" max="16384" width="9.1328125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3578,7 +3734,7 @@
         <v>254</v>
       </c>
       <c r="M43" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="N43" t="s">
         <v>255</v>
@@ -3620,6 +3776,2022 @@
         <v>266</v>
       </c>
       <c r="AO43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E44" t="s">
+        <v>249</v>
+      </c>
+      <c r="F44" t="s">
+        <v>250</v>
+      </c>
+      <c r="G44" t="s">
+        <v>269</v>
+      </c>
+      <c r="H44" t="s">
+        <v>157</v>
+      </c>
+      <c r="I44" t="s">
+        <v>252</v>
+      </c>
+      <c r="J44" t="s">
+        <v>157</v>
+      </c>
+      <c r="K44" t="s">
+        <v>270</v>
+      </c>
+      <c r="L44" t="s">
+        <v>271</v>
+      </c>
+      <c r="M44" t="s">
+        <v>159</v>
+      </c>
+      <c r="N44" t="s">
+        <v>255</v>
+      </c>
+      <c r="O44" t="s">
+        <v>256</v>
+      </c>
+      <c r="P44" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>257</v>
+      </c>
+      <c r="R44" t="s">
+        <v>272</v>
+      </c>
+      <c r="S44" t="s">
+        <v>259</v>
+      </c>
+      <c r="T44" t="s">
+        <v>260</v>
+      </c>
+      <c r="X44" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>273</v>
+      </c>
+      <c r="B45" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" t="s">
+        <v>250</v>
+      </c>
+      <c r="G45" t="s">
+        <v>274</v>
+      </c>
+      <c r="H45" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" t="s">
+        <v>252</v>
+      </c>
+      <c r="J45" t="s">
+        <v>157</v>
+      </c>
+      <c r="K45" t="s">
+        <v>275</v>
+      </c>
+      <c r="L45" t="s">
+        <v>276</v>
+      </c>
+      <c r="M45" t="s">
+        <v>159</v>
+      </c>
+      <c r="N45" t="s">
+        <v>255</v>
+      </c>
+      <c r="O45" t="s">
+        <v>256</v>
+      </c>
+      <c r="P45" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>257</v>
+      </c>
+      <c r="R45" t="s">
+        <v>272</v>
+      </c>
+      <c r="S45" t="s">
+        <v>259</v>
+      </c>
+      <c r="T45" t="s">
+        <v>260</v>
+      </c>
+      <c r="X45" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E46" t="s">
+        <v>249</v>
+      </c>
+      <c r="F46" t="s">
+        <v>250</v>
+      </c>
+      <c r="G46" t="s">
+        <v>278</v>
+      </c>
+      <c r="H46" t="s">
+        <v>157</v>
+      </c>
+      <c r="I46" t="s">
+        <v>252</v>
+      </c>
+      <c r="J46" t="s">
+        <v>157</v>
+      </c>
+      <c r="K46" t="s">
+        <v>279</v>
+      </c>
+      <c r="L46" t="s">
+        <v>280</v>
+      </c>
+      <c r="M46" t="s">
+        <v>159</v>
+      </c>
+      <c r="N46" t="s">
+        <v>255</v>
+      </c>
+      <c r="O46" t="s">
+        <v>256</v>
+      </c>
+      <c r="P46" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>257</v>
+      </c>
+      <c r="R46" t="s">
+        <v>272</v>
+      </c>
+      <c r="S46" t="s">
+        <v>259</v>
+      </c>
+      <c r="T46" t="s">
+        <v>260</v>
+      </c>
+      <c r="X46" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E47" t="s">
+        <v>249</v>
+      </c>
+      <c r="F47" t="s">
+        <v>250</v>
+      </c>
+      <c r="G47" t="s">
+        <v>282</v>
+      </c>
+      <c r="H47" t="s">
+        <v>157</v>
+      </c>
+      <c r="I47" t="s">
+        <v>252</v>
+      </c>
+      <c r="J47" t="s">
+        <v>157</v>
+      </c>
+      <c r="K47" t="s">
+        <v>283</v>
+      </c>
+      <c r="L47" t="s">
+        <v>284</v>
+      </c>
+      <c r="M47" t="s">
+        <v>159</v>
+      </c>
+      <c r="N47" t="s">
+        <v>255</v>
+      </c>
+      <c r="O47" t="s">
+        <v>256</v>
+      </c>
+      <c r="P47" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>257</v>
+      </c>
+      <c r="R47" t="s">
+        <v>272</v>
+      </c>
+      <c r="S47" t="s">
+        <v>259</v>
+      </c>
+      <c r="T47" t="s">
+        <v>260</v>
+      </c>
+      <c r="X47" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E48" t="s">
+        <v>249</v>
+      </c>
+      <c r="F48" t="s">
+        <v>250</v>
+      </c>
+      <c r="G48" t="s">
+        <v>286</v>
+      </c>
+      <c r="H48" t="s">
+        <v>157</v>
+      </c>
+      <c r="I48" t="s">
+        <v>252</v>
+      </c>
+      <c r="J48" t="s">
+        <v>157</v>
+      </c>
+      <c r="K48" t="s">
+        <v>253</v>
+      </c>
+      <c r="L48" t="s">
+        <v>254</v>
+      </c>
+      <c r="M48" t="s">
+        <v>159</v>
+      </c>
+      <c r="N48" t="s">
+        <v>255</v>
+      </c>
+      <c r="O48" t="s">
+        <v>256</v>
+      </c>
+      <c r="P48" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>257</v>
+      </c>
+      <c r="R48" t="s">
+        <v>258</v>
+      </c>
+      <c r="S48" t="s">
+        <v>259</v>
+      </c>
+      <c r="T48" t="s">
+        <v>260</v>
+      </c>
+      <c r="X48" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>287</v>
+      </c>
+      <c r="B49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E49" t="s">
+        <v>249</v>
+      </c>
+      <c r="F49" t="s">
+        <v>250</v>
+      </c>
+      <c r="G49" t="s">
+        <v>288</v>
+      </c>
+      <c r="H49" t="s">
+        <v>157</v>
+      </c>
+      <c r="I49" t="s">
+        <v>252</v>
+      </c>
+      <c r="J49" t="s">
+        <v>157</v>
+      </c>
+      <c r="K49" t="s">
+        <v>283</v>
+      </c>
+      <c r="L49" t="s">
+        <v>284</v>
+      </c>
+      <c r="M49" t="s">
+        <v>159</v>
+      </c>
+      <c r="N49" t="s">
+        <v>255</v>
+      </c>
+      <c r="O49" t="s">
+        <v>256</v>
+      </c>
+      <c r="P49" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>257</v>
+      </c>
+      <c r="R49" t="s">
+        <v>272</v>
+      </c>
+      <c r="S49" t="s">
+        <v>259</v>
+      </c>
+      <c r="T49" t="s">
+        <v>260</v>
+      </c>
+      <c r="X49" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>289</v>
+      </c>
+      <c r="B50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E50" t="s">
+        <v>249</v>
+      </c>
+      <c r="F50" t="s">
+        <v>250</v>
+      </c>
+      <c r="G50" t="s">
+        <v>290</v>
+      </c>
+      <c r="H50" t="s">
+        <v>157</v>
+      </c>
+      <c r="I50" t="s">
+        <v>252</v>
+      </c>
+      <c r="J50" t="s">
+        <v>157</v>
+      </c>
+      <c r="K50" t="s">
+        <v>283</v>
+      </c>
+      <c r="L50" t="s">
+        <v>284</v>
+      </c>
+      <c r="M50" t="s">
+        <v>159</v>
+      </c>
+      <c r="N50" t="s">
+        <v>255</v>
+      </c>
+      <c r="O50" t="s">
+        <v>256</v>
+      </c>
+      <c r="P50" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>257</v>
+      </c>
+      <c r="R50" t="s">
+        <v>272</v>
+      </c>
+      <c r="S50" t="s">
+        <v>259</v>
+      </c>
+      <c r="T50" t="s">
+        <v>260</v>
+      </c>
+      <c r="X50" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E51" t="s">
+        <v>249</v>
+      </c>
+      <c r="F51" t="s">
+        <v>250</v>
+      </c>
+      <c r="G51" t="s">
+        <v>251</v>
+      </c>
+      <c r="H51" t="s">
+        <v>157</v>
+      </c>
+      <c r="I51" t="s">
+        <v>252</v>
+      </c>
+      <c r="J51" t="s">
+        <v>157</v>
+      </c>
+      <c r="K51" t="s">
+        <v>253</v>
+      </c>
+      <c r="L51" t="s">
+        <v>254</v>
+      </c>
+      <c r="M51" t="s">
+        <v>159</v>
+      </c>
+      <c r="N51" t="s">
+        <v>255</v>
+      </c>
+      <c r="O51" t="s">
+        <v>256</v>
+      </c>
+      <c r="P51" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>257</v>
+      </c>
+      <c r="R51" t="s">
+        <v>258</v>
+      </c>
+      <c r="S51" t="s">
+        <v>259</v>
+      </c>
+      <c r="T51" t="s">
+        <v>260</v>
+      </c>
+      <c r="X51" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>268</v>
+      </c>
+      <c r="B52" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E52" t="s">
+        <v>249</v>
+      </c>
+      <c r="F52" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52" t="s">
+        <v>269</v>
+      </c>
+      <c r="H52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I52" t="s">
+        <v>252</v>
+      </c>
+      <c r="J52" t="s">
+        <v>157</v>
+      </c>
+      <c r="K52" t="s">
+        <v>270</v>
+      </c>
+      <c r="L52" t="s">
+        <v>271</v>
+      </c>
+      <c r="M52" t="s">
+        <v>159</v>
+      </c>
+      <c r="N52" t="s">
+        <v>255</v>
+      </c>
+      <c r="O52" t="s">
+        <v>256</v>
+      </c>
+      <c r="P52" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>257</v>
+      </c>
+      <c r="R52" t="s">
+        <v>272</v>
+      </c>
+      <c r="S52" t="s">
+        <v>259</v>
+      </c>
+      <c r="T52" t="s">
+        <v>260</v>
+      </c>
+      <c r="X52" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E53" t="s">
+        <v>249</v>
+      </c>
+      <c r="F53" t="s">
+        <v>250</v>
+      </c>
+      <c r="G53" t="s">
+        <v>274</v>
+      </c>
+      <c r="H53" t="s">
+        <v>157</v>
+      </c>
+      <c r="I53" t="s">
+        <v>252</v>
+      </c>
+      <c r="J53" t="s">
+        <v>157</v>
+      </c>
+      <c r="K53" t="s">
+        <v>275</v>
+      </c>
+      <c r="L53" t="s">
+        <v>276</v>
+      </c>
+      <c r="M53" t="s">
+        <v>159</v>
+      </c>
+      <c r="N53" t="s">
+        <v>255</v>
+      </c>
+      <c r="O53" t="s">
+        <v>256</v>
+      </c>
+      <c r="P53" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>257</v>
+      </c>
+      <c r="R53" t="s">
+        <v>272</v>
+      </c>
+      <c r="S53" t="s">
+        <v>259</v>
+      </c>
+      <c r="T53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X53" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>277</v>
+      </c>
+      <c r="B54" t="s">
+        <v>248</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E54" t="s">
+        <v>249</v>
+      </c>
+      <c r="F54" t="s">
+        <v>250</v>
+      </c>
+      <c r="G54" t="s">
+        <v>278</v>
+      </c>
+      <c r="H54" t="s">
+        <v>157</v>
+      </c>
+      <c r="I54" t="s">
+        <v>252</v>
+      </c>
+      <c r="J54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K54" t="s">
+        <v>279</v>
+      </c>
+      <c r="L54" t="s">
+        <v>280</v>
+      </c>
+      <c r="M54" t="s">
+        <v>159</v>
+      </c>
+      <c r="N54" t="s">
+        <v>255</v>
+      </c>
+      <c r="O54" t="s">
+        <v>256</v>
+      </c>
+      <c r="P54" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>257</v>
+      </c>
+      <c r="R54" t="s">
+        <v>272</v>
+      </c>
+      <c r="S54" t="s">
+        <v>259</v>
+      </c>
+      <c r="T54" t="s">
+        <v>260</v>
+      </c>
+      <c r="X54" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E55" t="s">
+        <v>249</v>
+      </c>
+      <c r="F55" t="s">
+        <v>250</v>
+      </c>
+      <c r="G55" t="s">
+        <v>282</v>
+      </c>
+      <c r="H55" t="s">
+        <v>157</v>
+      </c>
+      <c r="I55" t="s">
+        <v>252</v>
+      </c>
+      <c r="J55" t="s">
+        <v>157</v>
+      </c>
+      <c r="K55" t="s">
+        <v>283</v>
+      </c>
+      <c r="L55" t="s">
+        <v>284</v>
+      </c>
+      <c r="M55" t="s">
+        <v>159</v>
+      </c>
+      <c r="N55" t="s">
+        <v>255</v>
+      </c>
+      <c r="O55" t="s">
+        <v>256</v>
+      </c>
+      <c r="P55" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>257</v>
+      </c>
+      <c r="R55" t="s">
+        <v>272</v>
+      </c>
+      <c r="S55" t="s">
+        <v>259</v>
+      </c>
+      <c r="T55" t="s">
+        <v>260</v>
+      </c>
+      <c r="X55" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>285</v>
+      </c>
+      <c r="B56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E56" t="s">
+        <v>249</v>
+      </c>
+      <c r="F56" t="s">
+        <v>250</v>
+      </c>
+      <c r="G56" t="s">
+        <v>286</v>
+      </c>
+      <c r="H56" t="s">
+        <v>157</v>
+      </c>
+      <c r="I56" t="s">
+        <v>252</v>
+      </c>
+      <c r="J56" t="s">
+        <v>157</v>
+      </c>
+      <c r="K56" t="s">
+        <v>253</v>
+      </c>
+      <c r="L56" t="s">
+        <v>254</v>
+      </c>
+      <c r="M56" t="s">
+        <v>159</v>
+      </c>
+      <c r="N56" t="s">
+        <v>255</v>
+      </c>
+      <c r="O56" t="s">
+        <v>256</v>
+      </c>
+      <c r="P56" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>257</v>
+      </c>
+      <c r="R56" t="s">
+        <v>258</v>
+      </c>
+      <c r="S56" t="s">
+        <v>259</v>
+      </c>
+      <c r="T56" t="s">
+        <v>260</v>
+      </c>
+      <c r="X56" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>287</v>
+      </c>
+      <c r="B57" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E57" t="s">
+        <v>249</v>
+      </c>
+      <c r="F57" t="s">
+        <v>250</v>
+      </c>
+      <c r="G57" t="s">
+        <v>288</v>
+      </c>
+      <c r="H57" t="s">
+        <v>157</v>
+      </c>
+      <c r="I57" t="s">
+        <v>252</v>
+      </c>
+      <c r="J57" t="s">
+        <v>157</v>
+      </c>
+      <c r="K57" t="s">
+        <v>283</v>
+      </c>
+      <c r="L57" t="s">
+        <v>284</v>
+      </c>
+      <c r="M57" t="s">
+        <v>159</v>
+      </c>
+      <c r="N57" t="s">
+        <v>255</v>
+      </c>
+      <c r="O57" t="s">
+        <v>256</v>
+      </c>
+      <c r="P57" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>257</v>
+      </c>
+      <c r="R57" t="s">
+        <v>272</v>
+      </c>
+      <c r="S57" t="s">
+        <v>259</v>
+      </c>
+      <c r="T57" t="s">
+        <v>260</v>
+      </c>
+      <c r="X57" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>289</v>
+      </c>
+      <c r="B58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E58" t="s">
+        <v>249</v>
+      </c>
+      <c r="F58" t="s">
+        <v>250</v>
+      </c>
+      <c r="G58" t="s">
+        <v>290</v>
+      </c>
+      <c r="H58" t="s">
+        <v>157</v>
+      </c>
+      <c r="I58" t="s">
+        <v>252</v>
+      </c>
+      <c r="J58" t="s">
+        <v>157</v>
+      </c>
+      <c r="K58" t="s">
+        <v>283</v>
+      </c>
+      <c r="L58" t="s">
+        <v>284</v>
+      </c>
+      <c r="M58" t="s">
+        <v>159</v>
+      </c>
+      <c r="N58" t="s">
+        <v>255</v>
+      </c>
+      <c r="O58" t="s">
+        <v>256</v>
+      </c>
+      <c r="P58" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>257</v>
+      </c>
+      <c r="R58" t="s">
+        <v>272</v>
+      </c>
+      <c r="S58" t="s">
+        <v>259</v>
+      </c>
+      <c r="T58" t="s">
+        <v>260</v>
+      </c>
+      <c r="X58" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F59" t="s">
+        <v>250</v>
+      </c>
+      <c r="G59" t="s">
+        <v>292</v>
+      </c>
+      <c r="H59" t="s">
+        <v>157</v>
+      </c>
+      <c r="I59" t="s">
+        <v>252</v>
+      </c>
+      <c r="J59" t="s">
+        <v>157</v>
+      </c>
+      <c r="K59" t="s">
+        <v>283</v>
+      </c>
+      <c r="L59" t="s">
+        <v>284</v>
+      </c>
+      <c r="M59" t="s">
+        <v>159</v>
+      </c>
+      <c r="N59" t="s">
+        <v>255</v>
+      </c>
+      <c r="O59" t="s">
+        <v>256</v>
+      </c>
+      <c r="P59" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>257</v>
+      </c>
+      <c r="R59" t="s">
+        <v>272</v>
+      </c>
+      <c r="S59" t="s">
+        <v>259</v>
+      </c>
+      <c r="T59" t="s">
+        <v>260</v>
+      </c>
+      <c r="X59" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>293</v>
+      </c>
+      <c r="B60" t="s">
+        <v>248</v>
+      </c>
+      <c r="C60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" t="str">
+        <f>IF(C43=C$18,D$18,IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E60" t="s">
+        <v>249</v>
+      </c>
+      <c r="F60" t="s">
+        <v>250</v>
+      </c>
+      <c r="G60" t="s">
+        <v>294</v>
+      </c>
+      <c r="H60" t="s">
+        <v>157</v>
+      </c>
+      <c r="I60" t="s">
+        <v>252</v>
+      </c>
+      <c r="J60" t="s">
+        <v>157</v>
+      </c>
+      <c r="K60" t="s">
+        <v>253</v>
+      </c>
+      <c r="L60" t="s">
+        <v>254</v>
+      </c>
+      <c r="M60" t="s">
+        <v>159</v>
+      </c>
+      <c r="N60" t="s">
+        <v>255</v>
+      </c>
+      <c r="O60" t="s">
+        <v>256</v>
+      </c>
+      <c r="P60" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>257</v>
+      </c>
+      <c r="R60" t="s">
+        <v>258</v>
+      </c>
+      <c r="S60" t="s">
+        <v>259</v>
+      </c>
+      <c r="T60" t="s">
+        <v>260</v>
+      </c>
+      <c r="X60" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>295</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="53" t="str">
+        <f>IF(C44=C$18,D$18,IF(C44=C$19,D$19,IF(C44=C$20,D$20,IF(C44=C$21,D$21,IF(C44=C$22,D$22,IF(C44=C$23,D$23,IF(C44=C$24,D$24,IF(C44=C$25,D$25,IF(C44=C$26,D$26,IF(C44=C$27,D$27,IF(C44=C$28,D$28,IF(C44=C$29,D$29,IF(C44=C$30,D$30,IF(C44=C$31,D$31,IF(C44=C$32,D$32,IF(C44=C$33,D$33,IF(C44=C$34,D$34,IF(C44=C$35,D$35,IF(C44=C$36,D$36,IF(C44=C$37,D$37,IF(C44=C$38,D$38,IF(C44=C$39,D$39,IF(C44=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E61" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="F61" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="G61" t="s">
+        <v>297</v>
+      </c>
+      <c r="H61" t="s">
+        <v>157</v>
+      </c>
+      <c r="I61" t="s">
+        <v>252</v>
+      </c>
+      <c r="J61" t="s">
+        <v>157</v>
+      </c>
+      <c r="K61" t="s">
+        <v>298</v>
+      </c>
+      <c r="L61" t="s">
+        <v>299</v>
+      </c>
+      <c r="M61" t="s">
+        <v>171</v>
+      </c>
+      <c r="N61" t="s">
+        <v>300</v>
+      </c>
+      <c r="O61" t="s">
+        <v>301</v>
+      </c>
+      <c r="P61" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>257</v>
+      </c>
+      <c r="R61" t="s">
+        <v>258</v>
+      </c>
+      <c r="S61" t="s">
+        <v>259</v>
+      </c>
+      <c r="T61" t="s">
+        <v>260</v>
+      </c>
+      <c r="X61" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>302</v>
+      </c>
+      <c r="B62" t="s">
+        <v>248</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" t="str">
+        <f>IF(C44=C$18,D$18,IF(C44=C$19,D$19,IF(C44=C$20,D$20,IF(C44=C$21,D$21,IF(C44=C$22,D$22,IF(C44=C$23,D$23,IF(C44=C$24,D$24,IF(C44=C$25,D$25,IF(C44=C$26,D$26,IF(C44=C$27,D$27,IF(C44=C$28,D$28,IF(C44=C$29,D$29,IF(C44=C$30,D$30,IF(C44=C$31,D$31,IF(C44=C$32,D$32,IF(C44=C$33,D$33,IF(C44=C$34,D$34,IF(C44=C$35,D$35,IF(C44=C$36,D$36,IF(C44=C$37,D$37,IF(C44=C$38,D$38,IF(C44=C$39,D$39,IF(C44=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E62" t="s">
+        <v>249</v>
+      </c>
+      <c r="F62" t="s">
+        <v>296</v>
+      </c>
+      <c r="G62" t="s">
+        <v>303</v>
+      </c>
+      <c r="H62" t="s">
+        <v>157</v>
+      </c>
+      <c r="I62" t="s">
+        <v>252</v>
+      </c>
+      <c r="J62" t="s">
+        <v>157</v>
+      </c>
+      <c r="K62" t="s">
+        <v>298</v>
+      </c>
+      <c r="L62" t="s">
+        <v>299</v>
+      </c>
+      <c r="M62" t="s">
+        <v>171</v>
+      </c>
+      <c r="N62" t="s">
+        <v>300</v>
+      </c>
+      <c r="O62" t="s">
+        <v>301</v>
+      </c>
+      <c r="P62" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>257</v>
+      </c>
+      <c r="R62" t="s">
+        <v>258</v>
+      </c>
+      <c r="S62" t="s">
+        <v>259</v>
+      </c>
+      <c r="T62" t="s">
+        <v>260</v>
+      </c>
+      <c r="X62" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>304</v>
+      </c>
+      <c r="B63" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" t="str">
+        <f>IF(C44=C$18,D$18,IF(C44=C$19,D$19,IF(C44=C$20,D$20,IF(C44=C$21,D$21,IF(C44=C$22,D$22,IF(C44=C$23,D$23,IF(C44=C$24,D$24,IF(C44=C$25,D$25,IF(C44=C$26,D$26,IF(C44=C$27,D$27,IF(C44=C$28,D$28,IF(C44=C$29,D$29,IF(C44=C$30,D$30,IF(C44=C$31,D$31,IF(C44=C$32,D$32,IF(C44=C$33,D$33,IF(C44=C$34,D$34,IF(C44=C$35,D$35,IF(C44=C$36,D$36,IF(C44=C$37,D$37,IF(C44=C$38,D$38,IF(C44=C$39,D$39,IF(C44=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E63" t="s">
+        <v>249</v>
+      </c>
+      <c r="F63" t="s">
+        <v>296</v>
+      </c>
+      <c r="G63" t="s">
+        <v>305</v>
+      </c>
+      <c r="H63" t="s">
+        <v>157</v>
+      </c>
+      <c r="I63" t="s">
+        <v>252</v>
+      </c>
+      <c r="J63" t="s">
+        <v>157</v>
+      </c>
+      <c r="K63" t="s">
+        <v>298</v>
+      </c>
+      <c r="L63" t="s">
+        <v>299</v>
+      </c>
+      <c r="M63" t="s">
+        <v>171</v>
+      </c>
+      <c r="N63" t="s">
+        <v>300</v>
+      </c>
+      <c r="O63" t="s">
+        <v>301</v>
+      </c>
+      <c r="P63" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>257</v>
+      </c>
+      <c r="R63" t="s">
+        <v>258</v>
+      </c>
+      <c r="S63" t="s">
+        <v>259</v>
+      </c>
+      <c r="T63" t="s">
+        <v>260</v>
+      </c>
+      <c r="X63" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>306</v>
+      </c>
+      <c r="B64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" t="str">
+        <f>IF(C44=C$18,D$18,IF(C44=C$19,D$19,IF(C44=C$20,D$20,IF(C44=C$21,D$21,IF(C44=C$22,D$22,IF(C44=C$23,D$23,IF(C44=C$24,D$24,IF(C44=C$25,D$25,IF(C44=C$26,D$26,IF(C44=C$27,D$27,IF(C44=C$28,D$28,IF(C44=C$29,D$29,IF(C44=C$30,D$30,IF(C44=C$31,D$31,IF(C44=C$32,D$32,IF(C44=C$33,D$33,IF(C44=C$34,D$34,IF(C44=C$35,D$35,IF(C44=C$36,D$36,IF(C44=C$37,D$37,IF(C44=C$38,D$38,IF(C44=C$39,D$39,IF(C44=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E64" t="s">
+        <v>249</v>
+      </c>
+      <c r="F64" t="s">
+        <v>296</v>
+      </c>
+      <c r="G64" t="s">
+        <v>307</v>
+      </c>
+      <c r="H64" t="s">
+        <v>157</v>
+      </c>
+      <c r="I64" t="s">
+        <v>252</v>
+      </c>
+      <c r="J64" t="s">
+        <v>157</v>
+      </c>
+      <c r="K64" t="s">
+        <v>298</v>
+      </c>
+      <c r="L64" t="s">
+        <v>299</v>
+      </c>
+      <c r="M64" t="s">
+        <v>171</v>
+      </c>
+      <c r="N64" t="s">
+        <v>300</v>
+      </c>
+      <c r="O64" t="s">
+        <v>301</v>
+      </c>
+      <c r="P64" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>257</v>
+      </c>
+      <c r="R64" t="s">
+        <v>258</v>
+      </c>
+      <c r="S64" t="s">
+        <v>259</v>
+      </c>
+      <c r="T64" t="s">
+        <v>260</v>
+      </c>
+      <c r="X64" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>308</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="53" t="str">
+        <f>IF(C45=C$18,D$18,IF(C45=C$19,D$19,IF(C45=C$20,D$20,IF(C45=C$21,D$21,IF(C45=C$22,D$22,IF(C45=C$23,D$23,IF(C45=C$24,D$24,IF(C45=C$25,D$25,IF(C45=C$26,D$26,IF(C45=C$27,D$27,IF(C45=C$28,D$28,IF(C45=C$29,D$29,IF(C45=C$30,D$30,IF(C45=C$31,D$31,IF(C45=C$32,D$32,IF(C45=C$33,D$33,IF(C45=C$34,D$34,IF(C45=C$35,D$35,IF(C45=C$36,D$36,IF(C45=C$37,D$37,IF(C45=C$38,D$38,IF(C45=C$39,D$39,IF(C45=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E65" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="F65" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="G65" t="s">
+        <v>310</v>
+      </c>
+      <c r="H65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I65" t="s">
+        <v>252</v>
+      </c>
+      <c r="J65" t="s">
+        <v>157</v>
+      </c>
+      <c r="K65" t="s">
+        <v>298</v>
+      </c>
+      <c r="L65" t="s">
+        <v>299</v>
+      </c>
+      <c r="M65" t="s">
+        <v>159</v>
+      </c>
+      <c r="N65" t="s">
+        <v>255</v>
+      </c>
+      <c r="O65" t="s">
+        <v>311</v>
+      </c>
+      <c r="P65" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>257</v>
+      </c>
+      <c r="R65" t="s">
+        <v>312</v>
+      </c>
+      <c r="S65" t="s">
+        <v>259</v>
+      </c>
+      <c r="T65" t="s">
+        <v>260</v>
+      </c>
+      <c r="X65" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>314</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="53" t="str">
+        <f>IF(C46=C$18,D$18,IF(C46=C$19,D$19,IF(C46=C$20,D$20,IF(C46=C$21,D$21,IF(C46=C$22,D$22,IF(C46=C$23,D$23,IF(C46=C$24,D$24,IF(C46=C$25,D$25,IF(C46=C$26,D$26,IF(C46=C$27,D$27,IF(C46=C$28,D$28,IF(C46=C$29,D$29,IF(C46=C$30,D$30,IF(C46=C$31,D$31,IF(C46=C$32,D$32,IF(C46=C$33,D$33,IF(C46=C$34,D$34,IF(C46=C$35,D$35,IF(C46=C$36,D$36,IF(C46=C$37,D$37,IF(C46=C$38,D$38,IF(C46=C$39,D$39,IF(C46=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E66" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="F66" s="89" t="s">
+        <v>315</v>
+      </c>
+      <c r="G66" t="s">
+        <v>316</v>
+      </c>
+      <c r="H66" t="s">
+        <v>157</v>
+      </c>
+      <c r="I66" t="s">
+        <v>252</v>
+      </c>
+      <c r="J66" t="s">
+        <v>157</v>
+      </c>
+      <c r="K66" t="s">
+        <v>317</v>
+      </c>
+      <c r="L66" t="s">
+        <v>318</v>
+      </c>
+      <c r="M66" t="s">
+        <v>159</v>
+      </c>
+      <c r="N66" t="s">
+        <v>255</v>
+      </c>
+      <c r="O66" t="s">
+        <v>319</v>
+      </c>
+      <c r="P66" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>257</v>
+      </c>
+      <c r="R66" t="s">
+        <v>312</v>
+      </c>
+      <c r="S66" t="s">
+        <v>259</v>
+      </c>
+      <c r="T66" t="s">
+        <v>260</v>
+      </c>
+      <c r="X66" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" t="s">
+        <v>248</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" t="str">
+        <f>IF(C46=C$18,D$18,IF(C46=C$19,D$19,IF(C46=C$20,D$20,IF(C46=C$21,D$21,IF(C46=C$22,D$22,IF(C46=C$23,D$23,IF(C46=C$24,D$24,IF(C46=C$25,D$25,IF(C46=C$26,D$26,IF(C46=C$27,D$27,IF(C46=C$28,D$28,IF(C46=C$29,D$29,IF(C46=C$30,D$30,IF(C46=C$31,D$31,IF(C46=C$32,D$32,IF(C46=C$33,D$33,IF(C46=C$34,D$34,IF(C46=C$35,D$35,IF(C46=C$36,D$36,IF(C46=C$37,D$37,IF(C46=C$38,D$38,IF(C46=C$39,D$39,IF(C46=C$40,D$40,)))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E67" t="s">
+        <v>249</v>
+      </c>
+      <c r="F67" t="s">
+        <v>315</v>
+      </c>
+      <c r="G67" t="s">
+        <v>321</v>
+      </c>
+      <c r="H67" t="s">
+        <v>157</v>
+      </c>
+      <c r="I67" t="s">
+        <v>252</v>
+      </c>
+      <c r="J67" t="s">
+        <v>157</v>
+      </c>
+      <c r="K67" t="s">
+        <v>275</v>
+      </c>
+      <c r="L67" t="s">
+        <v>322</v>
+      </c>
+      <c r="M67" t="s">
+        <v>159</v>
+      </c>
+      <c r="N67" t="s">
+        <v>255</v>
+      </c>
+      <c r="O67" t="s">
+        <v>319</v>
+      </c>
+      <c r="P67" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>257</v>
+      </c>
+      <c r="R67" t="s">
+        <v>262</v>
+      </c>
+      <c r="S67" t="s">
+        <v>259</v>
+      </c>
+      <c r="T67" t="s">
+        <v>260</v>
+      </c>
+      <c r="X67" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO67" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3644,8 +5816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:F43"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3677,8 +5849,8 @@
     <col min="28" max="28" width="9.46484375" style="27" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.46484375" style="24" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="9.1328125" style="28" customWidth="1"/>
-    <col min="32" max="45" width="9.1328125" style="29" customWidth="1"/>
-    <col min="46" max="16384" width="9.1328125" style="29"/>
+    <col min="32" max="46" width="9.1328125" style="29" customWidth="1"/>
+    <col min="47" max="16384" width="9.1328125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4417,7 +6589,7 @@
         <v>146</v>
       </c>
       <c r="E37" s="91" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -4453,7 +6625,7 @@
         <v>154</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="X37" s="32"/>
       <c r="Y37" s="32"/>
@@ -4466,7 +6638,7 @@
     </row>
     <row r="38" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>155</v>
@@ -4509,7 +6681,7 @@
         <v>163</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="X38" s="32"/>
       <c r="Y38" s="5" t="s">
@@ -4524,7 +6696,7 @@
     </row>
     <row r="39" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="B39" s="78"/>
       <c r="C39" s="30" t="s">
@@ -4565,7 +6737,7 @@
         <v>175</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="X39" s="32"/>
       <c r="Y39" s="5" t="s">
@@ -4582,7 +6754,7 @@
     </row>
     <row r="40" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="B40" s="80"/>
       <c r="C40" s="30" t="s">
@@ -4618,10 +6790,10 @@
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="6" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="S40" s="57"/>
       <c r="T40" s="57"/>
@@ -4630,7 +6802,7 @@
         <v>188</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="X40" s="42"/>
       <c r="Y40" s="5" t="s">
@@ -4648,7 +6820,7 @@
     </row>
     <row r="41" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="43" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="B41" s="43" t="s">
         <v>193</v>
@@ -4666,10 +6838,10 @@
         <v>197</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="H41" s="44" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="I41" s="44" t="s">
         <v>199</v>
@@ -4681,7 +6853,7 @@
         <v>202</v>
       </c>
       <c r="L41" s="44" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="M41" s="44" t="s">
         <v>206</v>
@@ -4693,13 +6865,13 @@
         <v>208</v>
       </c>
       <c r="P41" s="44" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="Q41" s="44" t="s">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="S41" s="58" t="s">
         <v>217</v>
@@ -4711,10 +6883,10 @@
         <v>219</v>
       </c>
       <c r="V41" s="44" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="W41" s="44" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="X41" s="47" t="s">
         <v>225</v>
@@ -4760,7 +6932,7 @@
         <v>249</v>
       </c>
       <c r="F42" s="89" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="61"/>
@@ -4822,7 +6994,7 @@
         <v>249</v>
       </c>
       <c r="F43" s="89" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="61"/>
@@ -4884,7 +7056,7 @@
         <v>249</v>
       </c>
       <c r="F44" s="89" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="61"/>
@@ -4946,7 +7118,7 @@
         <v>249</v>
       </c>
       <c r="F45" s="89" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="61"/>

--- a/Parsing_characteristis_and_photo/Фиеста-Керамика 13.12.24.xlsx
+++ b/Parsing_characteristis_and_photo/Фиеста-Керамика 13.12.24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D88BE1-9D4B-4485-9028-9F34591199C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F5C9E8-1FB7-4227-AC18-2862C02DA29C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="341">
   <si>
     <t>С фруктами и едой</t>
   </si>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t>Украинская плитка</t>
-  </si>
-  <si>
-    <t>Реал-керамика 19.11.24</t>
   </si>
   <si>
     <t>Мозаика</t>
@@ -2263,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -3197,33 +3194,33 @@
         <v>146</v>
       </c>
       <c r="E37" s="91" t="s">
-        <v>147</v>
+        <v>322</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I37" s="72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J37" s="95"/>
       <c r="K37" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L37" s="77"/>
       <c r="M37" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P37" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="P37" s="4" t="s">
+      <c r="Q37" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="R37" s="95"/>
       <c r="S37" s="95"/>
@@ -3242,7 +3239,7 @@
       <c r="AF37" s="60"/>
       <c r="AG37" s="60"/>
       <c r="AH37" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AI37" s="32"/>
       <c r="AJ37" s="32"/>
@@ -3258,10 +3255,10 @@
     <row r="38" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="C38" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="92" t="s">
         <v>155</v>
-      </c>
-      <c r="D38" s="92" t="s">
-        <v>156</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
@@ -3270,25 +3267,25 @@
         <v>139</v>
       </c>
       <c r="I38" s="72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J38" s="95"/>
       <c r="K38" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L38" s="77"/>
       <c r="M38" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P38" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="Q38" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="Q38" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="R38" s="95"/>
       <c r="S38" s="95"/>
@@ -3307,11 +3304,11 @@
       <c r="AF38" s="60"/>
       <c r="AG38" s="60"/>
       <c r="AH38" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AI38" s="32"/>
       <c r="AJ38" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK38" s="25"/>
       <c r="AL38" s="35"/>
@@ -3326,40 +3323,40 @@
       <c r="A39" s="3"/>
       <c r="B39" s="78"/>
       <c r="C39" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="92" t="s">
+      <c r="E39" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="86" t="s">
+      <c r="F39" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="F39" s="96" t="s">
+      <c r="H39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39" s="72" t="s">
         <v>168</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I39" s="72" t="s">
-        <v>169</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L39" s="77"/>
       <c r="M39" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="P39" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="Q39" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="Q39" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
@@ -3378,14 +3375,14 @@
       <c r="AF39" s="60"/>
       <c r="AG39" s="60"/>
       <c r="AH39" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AI39" s="32"/>
       <c r="AJ39" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK39" s="124" t="s">
         <v>176</v>
-      </c>
-      <c r="AK39" s="124" t="s">
-        <v>177</v>
       </c>
       <c r="AL39" s="122"/>
       <c r="AM39" s="122"/>
@@ -3398,44 +3395,44 @@
       <c r="A40" s="3"/>
       <c r="B40" s="80"/>
       <c r="C40" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="92" t="s">
         <v>178</v>
-      </c>
-      <c r="D40" s="92" t="s">
-        <v>179</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I40" s="73" t="s">
         <v>180</v>
-      </c>
-      <c r="I40" s="73" t="s">
-        <v>181</v>
       </c>
       <c r="J40" s="41"/>
       <c r="K40" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L40" s="77"/>
       <c r="M40" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N40" s="98"/>
       <c r="O40" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="P40" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="P40" s="39" t="s">
+      <c r="Q40" s="39" t="s">
         <v>185</v>
-      </c>
-      <c r="Q40" s="39" t="s">
-        <v>186</v>
       </c>
       <c r="R40" s="41"/>
       <c r="S40" s="41"/>
       <c r="T40" s="41"/>
       <c r="U40" s="41"/>
       <c r="V40" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W40" s="41"/>
       <c r="X40" s="41"/>
@@ -3449,157 +3446,157 @@
       <c r="AF40" s="67"/>
       <c r="AG40" s="67"/>
       <c r="AH40" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AI40" s="42"/>
       <c r="AJ40" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK40" s="121" t="s">
         <v>189</v>
-      </c>
-      <c r="AK40" s="121" t="s">
-        <v>190</v>
       </c>
       <c r="AL40" s="122"/>
       <c r="AM40" s="123"/>
       <c r="AP40" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AQ40" s="123"/>
     </row>
     <row r="41" spans="1:45" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="C41" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="D41" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="E41" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="F41" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="G41" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="G41" s="44" t="s">
+      <c r="H41" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="I41" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="I41" s="44" t="s">
+      <c r="J41" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="J41" s="99" t="s">
+      <c r="K41" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="K41" s="46" t="s">
+      <c r="L41" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="L41" s="100" t="s">
+      <c r="M41" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="M41" s="44" t="s">
+      <c r="N41" s="100" t="s">
         <v>204</v>
       </c>
-      <c r="N41" s="100" t="s">
+      <c r="O41" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="O41" s="44" t="s">
+      <c r="P41" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="P41" s="44" t="s">
+      <c r="Q41" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="Q41" s="44" t="s">
+      <c r="R41" s="99" t="s">
         <v>208</v>
       </c>
-      <c r="R41" s="99" t="s">
+      <c r="S41" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="S41" s="99" t="s">
+      <c r="T41" s="99" t="s">
         <v>210</v>
-      </c>
-      <c r="T41" s="99" t="s">
-        <v>211</v>
       </c>
       <c r="U41" s="99" t="s">
         <v>123</v>
       </c>
       <c r="V41" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="W41" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="W41" s="99" t="s">
+      <c r="X41" s="99" t="s">
         <v>213</v>
       </c>
-      <c r="X41" s="99" t="s">
+      <c r="Y41" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="Y41" s="44" t="s">
+      <c r="Z41" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="Z41" s="44" t="s">
+      <c r="AA41" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="AA41" s="58" t="s">
+      <c r="AB41" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="AB41" s="58" t="s">
+      <c r="AC41" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="AC41" s="62" t="s">
+      <c r="AD41" s="99" t="s">
         <v>219</v>
       </c>
-      <c r="AD41" s="99" t="s">
+      <c r="AE41" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="AE41" s="99" t="s">
+      <c r="AF41" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="AF41" s="101" t="s">
+      <c r="AG41" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="AG41" s="101" t="s">
+      <c r="AH41" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="AH41" s="101" t="s">
+      <c r="AI41" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="AI41" s="47" t="s">
+      <c r="AJ41" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="AJ41" s="48" t="s">
+      <c r="AK41" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="AK41" s="49" t="s">
+      <c r="AL41" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="AL41" s="50" t="s">
+      <c r="AM41" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="AM41" s="51" t="s">
+      <c r="AN41" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="AN41" s="52" t="s">
+      <c r="AO41" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="AO41" s="99" t="s">
+      <c r="AP41" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="AP41" s="49" t="s">
+      <c r="AQ41" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="AQ41" s="49" t="s">
+      <c r="AR41" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="AR41" s="99" t="s">
+      <c r="AS41" s="102" t="s">
         <v>234</v>
-      </c>
-      <c r="AS41" s="102" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:45" s="117" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3612,73 +3609,73 @@
       <c r="G42" s="107"/>
       <c r="H42" s="105"/>
       <c r="I42" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="J42" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="K42" s="108" t="s">
         <v>236</v>
       </c>
-      <c r="J42" s="107" t="s">
-        <v>201</v>
-      </c>
-      <c r="K42" s="108" t="s">
+      <c r="L42" s="108" t="s">
+        <v>202</v>
+      </c>
+      <c r="M42" s="107" t="s">
         <v>237</v>
       </c>
-      <c r="L42" s="108" t="s">
-        <v>203</v>
-      </c>
-      <c r="M42" s="107" t="s">
+      <c r="N42" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="N42" s="108" t="s">
+      <c r="O42" s="107" t="s">
         <v>239</v>
       </c>
-      <c r="O42" s="107" t="s">
+      <c r="P42" s="107" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q42" s="107" t="s">
+        <v>207</v>
+      </c>
+      <c r="R42" s="107" t="s">
+        <v>208</v>
+      </c>
+      <c r="S42" s="107" t="s">
+        <v>209</v>
+      </c>
+      <c r="T42" s="107" t="s">
         <v>240</v>
-      </c>
-      <c r="P42" s="107" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q42" s="107" t="s">
-        <v>208</v>
-      </c>
-      <c r="R42" s="107" t="s">
-        <v>209</v>
-      </c>
-      <c r="S42" s="107" t="s">
-        <v>210</v>
-      </c>
-      <c r="T42" s="107" t="s">
-        <v>241</v>
       </c>
       <c r="U42" s="107" t="s">
         <v>123</v>
       </c>
       <c r="V42" s="107" t="s">
+        <v>211</v>
+      </c>
+      <c r="W42" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="W42" s="107" t="s">
+      <c r="X42" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="X42" s="107" t="s">
-        <v>214</v>
-      </c>
       <c r="Y42" s="107" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z42" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="Z42" s="107" t="s">
+      <c r="AA42" s="109" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB42" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC42" s="109" t="s">
         <v>243</v>
       </c>
-      <c r="AA42" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB42" s="109" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC42" s="109" t="s">
+      <c r="AD42" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="AD42" s="110" t="s">
+      <c r="AE42" s="110" t="s">
         <v>245</v>
-      </c>
-      <c r="AE42" s="110" t="s">
-        <v>246</v>
       </c>
       <c r="AF42" s="111"/>
       <c r="AG42" s="111"/>
@@ -3697,10 +3694,10 @@
     </row>
     <row r="43" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="118" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" s="30" t="s">
         <v>247</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>248</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>74</v>
@@ -3710,81 +3707,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E43" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="F43" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="F43" s="89" t="s">
+      <c r="G43" s="119" t="s">
         <v>250</v>
       </c>
-      <c r="G43" s="119" t="s">
+      <c r="H43" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43" t="s">
         <v>251</v>
       </c>
-      <c r="H43" t="s">
-        <v>157</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
+        <v>156</v>
+      </c>
+      <c r="K43" t="s">
         <v>252</v>
       </c>
-      <c r="J43" t="s">
-        <v>157</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>253</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
+        <v>158</v>
+      </c>
+      <c r="N43" t="s">
         <v>254</v>
       </c>
-      <c r="M43" t="s">
-        <v>159</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>255</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q43" t="s">
         <v>256</v>
       </c>
-      <c r="P43" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>257</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>258</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>259</v>
       </c>
-      <c r="T43" t="s">
+      <c r="X43" t="s">
         <v>260</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>261</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>262</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>263</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>264</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AC43" t="s">
         <v>265</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AO43" t="s">
         <v>266</v>
-      </c>
-      <c r="AO43" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C44" t="s">
         <v>74</v>
@@ -3794,81 +3791,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E44" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" t="s">
         <v>249</v>
       </c>
-      <c r="F44" t="s">
-        <v>250</v>
-      </c>
       <c r="G44" t="s">
+        <v>268</v>
+      </c>
+      <c r="H44" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" t="s">
+        <v>251</v>
+      </c>
+      <c r="J44" t="s">
+        <v>156</v>
+      </c>
+      <c r="K44" t="s">
         <v>269</v>
       </c>
-      <c r="H44" t="s">
-        <v>157</v>
-      </c>
-      <c r="I44" t="s">
-        <v>252</v>
-      </c>
-      <c r="J44" t="s">
-        <v>157</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>270</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
+        <v>158</v>
+      </c>
+      <c r="N44" t="s">
+        <v>254</v>
+      </c>
+      <c r="O44" t="s">
+        <v>255</v>
+      </c>
+      <c r="P44" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>256</v>
+      </c>
+      <c r="R44" t="s">
         <v>271</v>
       </c>
-      <c r="M44" t="s">
-        <v>159</v>
-      </c>
-      <c r="N44" t="s">
-        <v>255</v>
-      </c>
-      <c r="O44" t="s">
-        <v>256</v>
-      </c>
-      <c r="P44" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>257</v>
-      </c>
-      <c r="R44" t="s">
-        <v>272</v>
-      </c>
       <c r="S44" t="s">
+        <v>258</v>
+      </c>
+      <c r="T44" t="s">
         <v>259</v>
       </c>
-      <c r="T44" t="s">
+      <c r="X44" t="s">
         <v>260</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>261</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>262</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>263</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>264</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AC44" t="s">
         <v>265</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="AO44" t="s">
         <v>266</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C45" t="s">
         <v>74</v>
@@ -3878,81 +3875,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E45" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45" t="s">
         <v>249</v>
       </c>
-      <c r="F45" t="s">
-        <v>250</v>
-      </c>
       <c r="G45" t="s">
+        <v>273</v>
+      </c>
+      <c r="H45" t="s">
+        <v>156</v>
+      </c>
+      <c r="I45" t="s">
+        <v>251</v>
+      </c>
+      <c r="J45" t="s">
+        <v>156</v>
+      </c>
+      <c r="K45" t="s">
         <v>274</v>
       </c>
-      <c r="H45" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" t="s">
-        <v>252</v>
-      </c>
-      <c r="J45" t="s">
-        <v>157</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>275</v>
       </c>
-      <c r="L45" t="s">
-        <v>276</v>
-      </c>
       <c r="M45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N45" t="s">
+        <v>254</v>
+      </c>
+      <c r="O45" t="s">
         <v>255</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q45" t="s">
         <v>256</v>
       </c>
-      <c r="P45" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>257</v>
-      </c>
       <c r="R45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S45" t="s">
+        <v>258</v>
+      </c>
+      <c r="T45" t="s">
         <v>259</v>
       </c>
-      <c r="T45" t="s">
+      <c r="X45" t="s">
         <v>260</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>261</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>262</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>263</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>264</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AC45" t="s">
         <v>265</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="AO45" t="s">
         <v>266</v>
-      </c>
-      <c r="AO45" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C46" t="s">
         <v>74</v>
@@ -3962,81 +3959,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E46" t="s">
+        <v>248</v>
+      </c>
+      <c r="F46" t="s">
         <v>249</v>
       </c>
-      <c r="F46" t="s">
-        <v>250</v>
-      </c>
       <c r="G46" t="s">
+        <v>277</v>
+      </c>
+      <c r="H46" t="s">
+        <v>156</v>
+      </c>
+      <c r="I46" t="s">
+        <v>251</v>
+      </c>
+      <c r="J46" t="s">
+        <v>156</v>
+      </c>
+      <c r="K46" t="s">
         <v>278</v>
       </c>
-      <c r="H46" t="s">
-        <v>157</v>
-      </c>
-      <c r="I46" t="s">
-        <v>252</v>
-      </c>
-      <c r="J46" t="s">
-        <v>157</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>279</v>
       </c>
-      <c r="L46" t="s">
-        <v>280</v>
-      </c>
       <c r="M46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N46" t="s">
+        <v>254</v>
+      </c>
+      <c r="O46" t="s">
         <v>255</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q46" t="s">
         <v>256</v>
       </c>
-      <c r="P46" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>257</v>
-      </c>
       <c r="R46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S46" t="s">
+        <v>258</v>
+      </c>
+      <c r="T46" t="s">
         <v>259</v>
       </c>
-      <c r="T46" t="s">
+      <c r="X46" t="s">
         <v>260</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>261</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>262</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>263</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>264</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AC46" t="s">
         <v>265</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AO46" t="s">
         <v>266</v>
-      </c>
-      <c r="AO46" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" t="s">
         <v>74</v>
@@ -4046,81 +4043,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E47" t="s">
+        <v>248</v>
+      </c>
+      <c r="F47" t="s">
         <v>249</v>
       </c>
-      <c r="F47" t="s">
-        <v>250</v>
-      </c>
       <c r="G47" t="s">
+        <v>281</v>
+      </c>
+      <c r="H47" t="s">
+        <v>156</v>
+      </c>
+      <c r="I47" t="s">
+        <v>251</v>
+      </c>
+      <c r="J47" t="s">
+        <v>156</v>
+      </c>
+      <c r="K47" t="s">
         <v>282</v>
       </c>
-      <c r="H47" t="s">
-        <v>157</v>
-      </c>
-      <c r="I47" t="s">
-        <v>252</v>
-      </c>
-      <c r="J47" t="s">
-        <v>157</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>283</v>
       </c>
-      <c r="L47" t="s">
-        <v>284</v>
-      </c>
       <c r="M47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N47" t="s">
+        <v>254</v>
+      </c>
+      <c r="O47" t="s">
         <v>255</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q47" t="s">
         <v>256</v>
       </c>
-      <c r="P47" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>257</v>
-      </c>
       <c r="R47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S47" t="s">
+        <v>258</v>
+      </c>
+      <c r="T47" t="s">
         <v>259</v>
       </c>
-      <c r="T47" t="s">
+      <c r="X47" t="s">
         <v>260</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>261</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>262</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>263</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>264</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AC47" t="s">
         <v>265</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AO47" t="s">
         <v>266</v>
-      </c>
-      <c r="AO47" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C48" t="s">
         <v>74</v>
@@ -4130,81 +4127,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E48" t="s">
+        <v>248</v>
+      </c>
+      <c r="F48" t="s">
         <v>249</v>
       </c>
-      <c r="F48" t="s">
-        <v>250</v>
-      </c>
       <c r="G48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I48" t="s">
+        <v>251</v>
+      </c>
+      <c r="J48" t="s">
+        <v>156</v>
+      </c>
+      <c r="K48" t="s">
         <v>252</v>
       </c>
-      <c r="J48" t="s">
-        <v>157</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>253</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
+        <v>158</v>
+      </c>
+      <c r="N48" t="s">
         <v>254</v>
       </c>
-      <c r="M48" t="s">
-        <v>159</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>255</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q48" t="s">
         <v>256</v>
       </c>
-      <c r="P48" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>257</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>258</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>259</v>
       </c>
-      <c r="T48" t="s">
+      <c r="X48" t="s">
         <v>260</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>261</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>262</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>263</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>264</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AC48" t="s">
         <v>265</v>
       </c>
-      <c r="AC48" t="s">
+      <c r="AO48" t="s">
         <v>266</v>
-      </c>
-      <c r="AO48" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
@@ -4214,81 +4211,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E49" t="s">
+        <v>248</v>
+      </c>
+      <c r="F49" t="s">
         <v>249</v>
       </c>
-      <c r="F49" t="s">
-        <v>250</v>
-      </c>
       <c r="G49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K49" t="s">
+        <v>282</v>
+      </c>
+      <c r="L49" t="s">
         <v>283</v>
       </c>
-      <c r="L49" t="s">
-        <v>284</v>
-      </c>
       <c r="M49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N49" t="s">
+        <v>254</v>
+      </c>
+      <c r="O49" t="s">
         <v>255</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q49" t="s">
         <v>256</v>
       </c>
-      <c r="P49" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>257</v>
-      </c>
       <c r="R49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S49" t="s">
+        <v>258</v>
+      </c>
+      <c r="T49" t="s">
         <v>259</v>
       </c>
-      <c r="T49" t="s">
+      <c r="X49" t="s">
         <v>260</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>261</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>262</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>263</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>264</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AC49" t="s">
         <v>265</v>
       </c>
-      <c r="AC49" t="s">
+      <c r="AO49" t="s">
         <v>266</v>
-      </c>
-      <c r="AO49" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C50" t="s">
         <v>74</v>
@@ -4298,81 +4295,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E50" t="s">
+        <v>248</v>
+      </c>
+      <c r="F50" t="s">
         <v>249</v>
       </c>
-      <c r="F50" t="s">
-        <v>250</v>
-      </c>
       <c r="G50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K50" t="s">
+        <v>282</v>
+      </c>
+      <c r="L50" t="s">
         <v>283</v>
       </c>
-      <c r="L50" t="s">
-        <v>284</v>
-      </c>
       <c r="M50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N50" t="s">
+        <v>254</v>
+      </c>
+      <c r="O50" t="s">
         <v>255</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q50" t="s">
         <v>256</v>
       </c>
-      <c r="P50" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>257</v>
-      </c>
       <c r="R50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S50" t="s">
+        <v>258</v>
+      </c>
+      <c r="T50" t="s">
         <v>259</v>
       </c>
-      <c r="T50" t="s">
+      <c r="X50" t="s">
         <v>260</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>261</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>262</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>263</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>264</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AC50" t="s">
         <v>265</v>
       </c>
-      <c r="AC50" t="s">
+      <c r="AO50" t="s">
         <v>266</v>
-      </c>
-      <c r="AO50" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s">
         <v>247</v>
-      </c>
-      <c r="B51" t="s">
-        <v>248</v>
       </c>
       <c r="C51" t="s">
         <v>74</v>
@@ -4382,81 +4379,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E51" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" t="s">
         <v>249</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>250</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
+        <v>156</v>
+      </c>
+      <c r="I51" t="s">
         <v>251</v>
       </c>
-      <c r="H51" t="s">
-        <v>157</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
+        <v>156</v>
+      </c>
+      <c r="K51" t="s">
         <v>252</v>
       </c>
-      <c r="J51" t="s">
-        <v>157</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>253</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
+        <v>158</v>
+      </c>
+      <c r="N51" t="s">
         <v>254</v>
       </c>
-      <c r="M51" t="s">
-        <v>159</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>255</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q51" t="s">
         <v>256</v>
       </c>
-      <c r="P51" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>257</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>258</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>259</v>
       </c>
-      <c r="T51" t="s">
+      <c r="X51" t="s">
         <v>260</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>261</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>262</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>263</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>264</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AC51" t="s">
         <v>265</v>
       </c>
-      <c r="AC51" t="s">
+      <c r="AO51" t="s">
         <v>266</v>
-      </c>
-      <c r="AO51" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C52" t="s">
         <v>74</v>
@@ -4466,81 +4463,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E52" t="s">
+        <v>248</v>
+      </c>
+      <c r="F52" t="s">
         <v>249</v>
       </c>
-      <c r="F52" t="s">
-        <v>250</v>
-      </c>
       <c r="G52" t="s">
+        <v>268</v>
+      </c>
+      <c r="H52" t="s">
+        <v>156</v>
+      </c>
+      <c r="I52" t="s">
+        <v>251</v>
+      </c>
+      <c r="J52" t="s">
+        <v>156</v>
+      </c>
+      <c r="K52" t="s">
         <v>269</v>
       </c>
-      <c r="H52" t="s">
-        <v>157</v>
-      </c>
-      <c r="I52" t="s">
-        <v>252</v>
-      </c>
-      <c r="J52" t="s">
-        <v>157</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>270</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
+        <v>158</v>
+      </c>
+      <c r="N52" t="s">
+        <v>254</v>
+      </c>
+      <c r="O52" t="s">
+        <v>255</v>
+      </c>
+      <c r="P52" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>256</v>
+      </c>
+      <c r="R52" t="s">
         <v>271</v>
       </c>
-      <c r="M52" t="s">
-        <v>159</v>
-      </c>
-      <c r="N52" t="s">
-        <v>255</v>
-      </c>
-      <c r="O52" t="s">
-        <v>256</v>
-      </c>
-      <c r="P52" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>257</v>
-      </c>
-      <c r="R52" t="s">
-        <v>272</v>
-      </c>
       <c r="S52" t="s">
+        <v>258</v>
+      </c>
+      <c r="T52" t="s">
         <v>259</v>
       </c>
-      <c r="T52" t="s">
+      <c r="X52" t="s">
         <v>260</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>261</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>262</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>263</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>264</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AC52" t="s">
         <v>265</v>
       </c>
-      <c r="AC52" t="s">
+      <c r="AO52" t="s">
         <v>266</v>
-      </c>
-      <c r="AO52" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C53" t="s">
         <v>74</v>
@@ -4550,81 +4547,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E53" t="s">
+        <v>248</v>
+      </c>
+      <c r="F53" t="s">
         <v>249</v>
       </c>
-      <c r="F53" t="s">
-        <v>250</v>
-      </c>
       <c r="G53" t="s">
+        <v>273</v>
+      </c>
+      <c r="H53" t="s">
+        <v>156</v>
+      </c>
+      <c r="I53" t="s">
+        <v>251</v>
+      </c>
+      <c r="J53" t="s">
+        <v>156</v>
+      </c>
+      <c r="K53" t="s">
         <v>274</v>
       </c>
-      <c r="H53" t="s">
-        <v>157</v>
-      </c>
-      <c r="I53" t="s">
-        <v>252</v>
-      </c>
-      <c r="J53" t="s">
-        <v>157</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>275</v>
       </c>
-      <c r="L53" t="s">
-        <v>276</v>
-      </c>
       <c r="M53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N53" t="s">
+        <v>254</v>
+      </c>
+      <c r="O53" t="s">
         <v>255</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q53" t="s">
         <v>256</v>
       </c>
-      <c r="P53" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>257</v>
-      </c>
       <c r="R53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S53" t="s">
+        <v>258</v>
+      </c>
+      <c r="T53" t="s">
         <v>259</v>
       </c>
-      <c r="T53" t="s">
+      <c r="X53" t="s">
         <v>260</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>261</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>262</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>263</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>264</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AC53" t="s">
         <v>265</v>
       </c>
-      <c r="AC53" t="s">
+      <c r="AO53" t="s">
         <v>266</v>
-      </c>
-      <c r="AO53" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C54" t="s">
         <v>74</v>
@@ -4634,81 +4631,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E54" t="s">
+        <v>248</v>
+      </c>
+      <c r="F54" t="s">
         <v>249</v>
       </c>
-      <c r="F54" t="s">
-        <v>250</v>
-      </c>
       <c r="G54" t="s">
+        <v>277</v>
+      </c>
+      <c r="H54" t="s">
+        <v>156</v>
+      </c>
+      <c r="I54" t="s">
+        <v>251</v>
+      </c>
+      <c r="J54" t="s">
+        <v>156</v>
+      </c>
+      <c r="K54" t="s">
         <v>278</v>
       </c>
-      <c r="H54" t="s">
-        <v>157</v>
-      </c>
-      <c r="I54" t="s">
-        <v>252</v>
-      </c>
-      <c r="J54" t="s">
-        <v>157</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>279</v>
       </c>
-      <c r="L54" t="s">
-        <v>280</v>
-      </c>
       <c r="M54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N54" t="s">
+        <v>254</v>
+      </c>
+      <c r="O54" t="s">
         <v>255</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q54" t="s">
         <v>256</v>
       </c>
-      <c r="P54" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>257</v>
-      </c>
       <c r="R54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S54" t="s">
+        <v>258</v>
+      </c>
+      <c r="T54" t="s">
         <v>259</v>
       </c>
-      <c r="T54" t="s">
+      <c r="X54" t="s">
         <v>260</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>261</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>262</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>263</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>264</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AC54" t="s">
         <v>265</v>
       </c>
-      <c r="AC54" t="s">
+      <c r="AO54" t="s">
         <v>266</v>
-      </c>
-      <c r="AO54" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C55" t="s">
         <v>74</v>
@@ -4718,81 +4715,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E55" t="s">
+        <v>248</v>
+      </c>
+      <c r="F55" t="s">
         <v>249</v>
       </c>
-      <c r="F55" t="s">
-        <v>250</v>
-      </c>
       <c r="G55" t="s">
+        <v>281</v>
+      </c>
+      <c r="H55" t="s">
+        <v>156</v>
+      </c>
+      <c r="I55" t="s">
+        <v>251</v>
+      </c>
+      <c r="J55" t="s">
+        <v>156</v>
+      </c>
+      <c r="K55" t="s">
         <v>282</v>
       </c>
-      <c r="H55" t="s">
-        <v>157</v>
-      </c>
-      <c r="I55" t="s">
-        <v>252</v>
-      </c>
-      <c r="J55" t="s">
-        <v>157</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>283</v>
       </c>
-      <c r="L55" t="s">
-        <v>284</v>
-      </c>
       <c r="M55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N55" t="s">
+        <v>254</v>
+      </c>
+      <c r="O55" t="s">
         <v>255</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q55" t="s">
         <v>256</v>
       </c>
-      <c r="P55" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>257</v>
-      </c>
       <c r="R55" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S55" t="s">
+        <v>258</v>
+      </c>
+      <c r="T55" t="s">
         <v>259</v>
       </c>
-      <c r="T55" t="s">
+      <c r="X55" t="s">
         <v>260</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>261</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>262</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>263</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>264</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AC55" t="s">
         <v>265</v>
       </c>
-      <c r="AC55" t="s">
+      <c r="AO55" t="s">
         <v>266</v>
-      </c>
-      <c r="AO55" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C56" t="s">
         <v>74</v>
@@ -4802,81 +4799,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E56" t="s">
+        <v>248</v>
+      </c>
+      <c r="F56" t="s">
         <v>249</v>
       </c>
-      <c r="F56" t="s">
-        <v>250</v>
-      </c>
       <c r="G56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I56" t="s">
+        <v>251</v>
+      </c>
+      <c r="J56" t="s">
+        <v>156</v>
+      </c>
+      <c r="K56" t="s">
         <v>252</v>
       </c>
-      <c r="J56" t="s">
-        <v>157</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>253</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
+        <v>158</v>
+      </c>
+      <c r="N56" t="s">
         <v>254</v>
       </c>
-      <c r="M56" t="s">
-        <v>159</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>255</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q56" t="s">
         <v>256</v>
       </c>
-      <c r="P56" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>257</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>258</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>259</v>
       </c>
-      <c r="T56" t="s">
+      <c r="X56" t="s">
         <v>260</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>261</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>262</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>263</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>264</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AC56" t="s">
         <v>265</v>
       </c>
-      <c r="AC56" t="s">
+      <c r="AO56" t="s">
         <v>266</v>
-      </c>
-      <c r="AO56" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C57" t="s">
         <v>74</v>
@@ -4886,81 +4883,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E57" t="s">
+        <v>248</v>
+      </c>
+      <c r="F57" t="s">
         <v>249</v>
       </c>
-      <c r="F57" t="s">
-        <v>250</v>
-      </c>
       <c r="G57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K57" t="s">
+        <v>282</v>
+      </c>
+      <c r="L57" t="s">
         <v>283</v>
       </c>
-      <c r="L57" t="s">
-        <v>284</v>
-      </c>
       <c r="M57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N57" t="s">
+        <v>254</v>
+      </c>
+      <c r="O57" t="s">
         <v>255</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q57" t="s">
         <v>256</v>
       </c>
-      <c r="P57" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>257</v>
-      </c>
       <c r="R57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S57" t="s">
+        <v>258</v>
+      </c>
+      <c r="T57" t="s">
         <v>259</v>
       </c>
-      <c r="T57" t="s">
+      <c r="X57" t="s">
         <v>260</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>261</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>262</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>263</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>264</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AC57" t="s">
         <v>265</v>
       </c>
-      <c r="AC57" t="s">
+      <c r="AO57" t="s">
         <v>266</v>
-      </c>
-      <c r="AO57" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C58" t="s">
         <v>74</v>
@@ -4970,81 +4967,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E58" t="s">
+        <v>248</v>
+      </c>
+      <c r="F58" t="s">
         <v>249</v>
       </c>
-      <c r="F58" t="s">
-        <v>250</v>
-      </c>
       <c r="G58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K58" t="s">
+        <v>282</v>
+      </c>
+      <c r="L58" t="s">
         <v>283</v>
       </c>
-      <c r="L58" t="s">
-        <v>284</v>
-      </c>
       <c r="M58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N58" t="s">
+        <v>254</v>
+      </c>
+      <c r="O58" t="s">
         <v>255</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q58" t="s">
         <v>256</v>
       </c>
-      <c r="P58" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>257</v>
-      </c>
       <c r="R58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S58" t="s">
+        <v>258</v>
+      </c>
+      <c r="T58" t="s">
         <v>259</v>
       </c>
-      <c r="T58" t="s">
+      <c r="X58" t="s">
         <v>260</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>261</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>262</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>263</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>264</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AC58" t="s">
         <v>265</v>
       </c>
-      <c r="AC58" t="s">
+      <c r="AO58" t="s">
         <v>266</v>
-      </c>
-      <c r="AO58" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
@@ -5054,81 +5051,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E59" t="s">
+        <v>248</v>
+      </c>
+      <c r="F59" t="s">
         <v>249</v>
       </c>
-      <c r="F59" t="s">
-        <v>250</v>
-      </c>
       <c r="G59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K59" t="s">
+        <v>282</v>
+      </c>
+      <c r="L59" t="s">
         <v>283</v>
       </c>
-      <c r="L59" t="s">
-        <v>284</v>
-      </c>
       <c r="M59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N59" t="s">
+        <v>254</v>
+      </c>
+      <c r="O59" t="s">
         <v>255</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q59" t="s">
         <v>256</v>
       </c>
-      <c r="P59" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>257</v>
-      </c>
       <c r="R59" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S59" t="s">
+        <v>258</v>
+      </c>
+      <c r="T59" t="s">
         <v>259</v>
       </c>
-      <c r="T59" t="s">
+      <c r="X59" t="s">
         <v>260</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>261</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>262</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>263</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>264</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AC59" t="s">
         <v>265</v>
       </c>
-      <c r="AC59" t="s">
+      <c r="AO59" t="s">
         <v>266</v>
-      </c>
-      <c r="AO59" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C60" t="s">
         <v>74</v>
@@ -5138,81 +5135,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E60" t="s">
+        <v>248</v>
+      </c>
+      <c r="F60" t="s">
         <v>249</v>
       </c>
-      <c r="F60" t="s">
-        <v>250</v>
-      </c>
       <c r="G60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I60" t="s">
+        <v>251</v>
+      </c>
+      <c r="J60" t="s">
+        <v>156</v>
+      </c>
+      <c r="K60" t="s">
         <v>252</v>
       </c>
-      <c r="J60" t="s">
-        <v>157</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>253</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
+        <v>158</v>
+      </c>
+      <c r="N60" t="s">
         <v>254</v>
       </c>
-      <c r="M60" t="s">
-        <v>159</v>
-      </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>255</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q60" t="s">
         <v>256</v>
       </c>
-      <c r="P60" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>257</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>258</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>259</v>
       </c>
-      <c r="T60" t="s">
+      <c r="X60" t="s">
         <v>260</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>261</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>262</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>263</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>264</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AC60" t="s">
         <v>265</v>
       </c>
-      <c r="AC60" t="s">
+      <c r="AO60" t="s">
         <v>266</v>
-      </c>
-      <c r="AO60" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C61" s="30" t="s">
         <v>74</v>
@@ -5222,81 +5219,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E61" s="93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F61" s="89" t="s">
+        <v>295</v>
+      </c>
+      <c r="G61" t="s">
         <v>296</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
+        <v>156</v>
+      </c>
+      <c r="I61" t="s">
+        <v>251</v>
+      </c>
+      <c r="J61" t="s">
+        <v>156</v>
+      </c>
+      <c r="K61" t="s">
         <v>297</v>
       </c>
-      <c r="H61" t="s">
-        <v>157</v>
-      </c>
-      <c r="I61" t="s">
-        <v>252</v>
-      </c>
-      <c r="J61" t="s">
-        <v>157</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>298</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
+        <v>170</v>
+      </c>
+      <c r="N61" t="s">
         <v>299</v>
       </c>
-      <c r="M61" t="s">
-        <v>171</v>
-      </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>300</v>
       </c>
-      <c r="O61" t="s">
-        <v>301</v>
-      </c>
       <c r="P61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q61" t="s">
+        <v>256</v>
+      </c>
+      <c r="R61" t="s">
         <v>257</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>258</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>259</v>
       </c>
-      <c r="T61" t="s">
+      <c r="X61" t="s">
         <v>260</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>261</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>262</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>263</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>264</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AC61" t="s">
         <v>265</v>
       </c>
-      <c r="AC61" t="s">
+      <c r="AO61" t="s">
         <v>266</v>
-      </c>
-      <c r="AO61" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
@@ -5306,81 +5303,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K62" t="s">
+        <v>297</v>
+      </c>
+      <c r="L62" t="s">
         <v>298</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
+        <v>170</v>
+      </c>
+      <c r="N62" t="s">
         <v>299</v>
       </c>
-      <c r="M62" t="s">
-        <v>171</v>
-      </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>300</v>
       </c>
-      <c r="O62" t="s">
-        <v>301</v>
-      </c>
       <c r="P62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q62" t="s">
+        <v>256</v>
+      </c>
+      <c r="R62" t="s">
         <v>257</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>258</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>259</v>
       </c>
-      <c r="T62" t="s">
+      <c r="X62" t="s">
         <v>260</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>261</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>262</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>263</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>264</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AC62" t="s">
         <v>265</v>
       </c>
-      <c r="AC62" t="s">
+      <c r="AO62" t="s">
         <v>266</v>
-      </c>
-      <c r="AO62" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s">
         <v>74</v>
@@ -5390,81 +5387,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K63" t="s">
+        <v>297</v>
+      </c>
+      <c r="L63" t="s">
         <v>298</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
+        <v>170</v>
+      </c>
+      <c r="N63" t="s">
         <v>299</v>
       </c>
-      <c r="M63" t="s">
-        <v>171</v>
-      </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>300</v>
       </c>
-      <c r="O63" t="s">
-        <v>301</v>
-      </c>
       <c r="P63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q63" t="s">
+        <v>256</v>
+      </c>
+      <c r="R63" t="s">
         <v>257</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>258</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>259</v>
       </c>
-      <c r="T63" t="s">
+      <c r="X63" t="s">
         <v>260</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>261</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>262</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>263</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>264</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AC63" t="s">
         <v>265</v>
       </c>
-      <c r="AC63" t="s">
+      <c r="AO63" t="s">
         <v>266</v>
-      </c>
-      <c r="AO63" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C64" t="s">
         <v>74</v>
@@ -5474,81 +5471,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G64" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K64" t="s">
+        <v>297</v>
+      </c>
+      <c r="L64" t="s">
         <v>298</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
+        <v>170</v>
+      </c>
+      <c r="N64" t="s">
         <v>299</v>
       </c>
-      <c r="M64" t="s">
-        <v>171</v>
-      </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>300</v>
       </c>
-      <c r="O64" t="s">
-        <v>301</v>
-      </c>
       <c r="P64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q64" t="s">
+        <v>256</v>
+      </c>
+      <c r="R64" t="s">
         <v>257</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>258</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>259</v>
       </c>
-      <c r="T64" t="s">
+      <c r="X64" t="s">
         <v>260</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>261</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>262</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>263</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>264</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AC64" t="s">
         <v>265</v>
       </c>
-      <c r="AC64" t="s">
+      <c r="AO64" t="s">
         <v>266</v>
-      </c>
-      <c r="AO64" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C65" s="30" t="s">
         <v>74</v>
@@ -5558,81 +5555,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E65" s="93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F65" s="89" t="s">
+        <v>308</v>
+      </c>
+      <c r="G65" t="s">
         <v>309</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
+        <v>156</v>
+      </c>
+      <c r="I65" t="s">
+        <v>251</v>
+      </c>
+      <c r="J65" t="s">
+        <v>156</v>
+      </c>
+      <c r="K65" t="s">
+        <v>297</v>
+      </c>
+      <c r="L65" t="s">
+        <v>298</v>
+      </c>
+      <c r="M65" t="s">
+        <v>158</v>
+      </c>
+      <c r="N65" t="s">
+        <v>254</v>
+      </c>
+      <c r="O65" t="s">
         <v>310</v>
       </c>
-      <c r="H65" t="s">
-        <v>157</v>
-      </c>
-      <c r="I65" t="s">
-        <v>252</v>
-      </c>
-      <c r="J65" t="s">
-        <v>157</v>
-      </c>
-      <c r="K65" t="s">
-        <v>298</v>
-      </c>
-      <c r="L65" t="s">
-        <v>299</v>
-      </c>
-      <c r="M65" t="s">
-        <v>159</v>
-      </c>
-      <c r="N65" t="s">
-        <v>255</v>
-      </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>256</v>
+      </c>
+      <c r="R65" t="s">
         <v>311</v>
       </c>
-      <c r="P65" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>257</v>
-      </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
+        <v>258</v>
+      </c>
+      <c r="T65" t="s">
+        <v>259</v>
+      </c>
+      <c r="X65" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO65" t="s">
         <v>312</v>
-      </c>
-      <c r="S65" t="s">
-        <v>259</v>
-      </c>
-      <c r="T65" t="s">
-        <v>260</v>
-      </c>
-      <c r="X65" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>265</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>266</v>
-      </c>
-      <c r="AO65" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C66" s="30" t="s">
         <v>74</v>
@@ -5642,81 +5639,81 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E66" s="93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F66" s="89" t="s">
+        <v>314</v>
+      </c>
+      <c r="G66" t="s">
         <v>315</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
+        <v>156</v>
+      </c>
+      <c r="I66" t="s">
+        <v>251</v>
+      </c>
+      <c r="J66" t="s">
+        <v>156</v>
+      </c>
+      <c r="K66" t="s">
         <v>316</v>
       </c>
-      <c r="H66" t="s">
-        <v>157</v>
-      </c>
-      <c r="I66" t="s">
-        <v>252</v>
-      </c>
-      <c r="J66" t="s">
-        <v>157</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>317</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
+        <v>158</v>
+      </c>
+      <c r="N66" t="s">
+        <v>254</v>
+      </c>
+      <c r="O66" t="s">
         <v>318</v>
       </c>
-      <c r="M66" t="s">
-        <v>159</v>
-      </c>
-      <c r="N66" t="s">
-        <v>255</v>
-      </c>
-      <c r="O66" t="s">
-        <v>319</v>
-      </c>
       <c r="P66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S66" t="s">
+        <v>258</v>
+      </c>
+      <c r="T66" t="s">
         <v>259</v>
       </c>
-      <c r="T66" t="s">
+      <c r="X66" t="s">
         <v>260</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>261</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>262</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>263</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>264</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AC66" t="s">
         <v>265</v>
       </c>
-      <c r="AC66" t="s">
+      <c r="AO66" t="s">
         <v>266</v>
-      </c>
-      <c r="AO66" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -5726,73 +5723,73 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F67" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G67" t="s">
+        <v>320</v>
+      </c>
+      <c r="H67" t="s">
+        <v>156</v>
+      </c>
+      <c r="I67" t="s">
+        <v>251</v>
+      </c>
+      <c r="J67" t="s">
+        <v>156</v>
+      </c>
+      <c r="K67" t="s">
+        <v>274</v>
+      </c>
+      <c r="L67" t="s">
         <v>321</v>
       </c>
-      <c r="H67" t="s">
-        <v>157</v>
-      </c>
-      <c r="I67" t="s">
-        <v>252</v>
-      </c>
-      <c r="J67" t="s">
-        <v>157</v>
-      </c>
-      <c r="K67" t="s">
-        <v>275</v>
-      </c>
-      <c r="L67" t="s">
-        <v>322</v>
-      </c>
       <c r="M67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R67" t="s">
+        <v>261</v>
+      </c>
+      <c r="S67" t="s">
+        <v>258</v>
+      </c>
+      <c r="T67" t="s">
+        <v>259</v>
+      </c>
+      <c r="X67" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z67" t="s">
         <v>262</v>
       </c>
-      <c r="S67" t="s">
-        <v>259</v>
-      </c>
-      <c r="T67" t="s">
-        <v>260</v>
-      </c>
-      <c r="X67" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>263</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>264</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AC67" t="s">
         <v>265</v>
       </c>
-      <c r="AC67" t="s">
+      <c r="AO67" t="s">
         <v>266</v>
-      </c>
-      <c r="AO67" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5817,7 +5814,7 @@
   <dimension ref="A1:AF64"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:F45"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6589,31 +6586,31 @@
         <v>146</v>
       </c>
       <c r="E37" s="91" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="60"/>
       <c r="I37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J37" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="M37" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="N37" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="O37" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="P37" s="32"/>
       <c r="Q37" s="23"/>
@@ -6622,10 +6619,10 @@
       <c r="T37" s="57"/>
       <c r="U37" s="57"/>
       <c r="V37" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="X37" s="32"/>
       <c r="Y37" s="32"/>
@@ -6638,13 +6635,13 @@
     </row>
     <row r="38" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C38" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="92" t="s">
         <v>155</v>
-      </c>
-      <c r="D38" s="92" t="s">
-        <v>156</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
@@ -6654,22 +6651,22 @@
         <v>139</v>
       </c>
       <c r="J38" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="M38" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="N38" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="O38" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="P38" s="95"/>
       <c r="Q38" s="23"/>
@@ -6678,14 +6675,14 @@
       <c r="T38" s="57"/>
       <c r="U38" s="57"/>
       <c r="V38" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="X38" s="32"/>
       <c r="Y38" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z38" s="25"/>
       <c r="AA38" s="35"/>
@@ -6696,36 +6693,36 @@
     </row>
     <row r="39" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B39" s="78"/>
       <c r="C39" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="92" t="s">
         <v>165</v>
-      </c>
-      <c r="D39" s="92" t="s">
-        <v>166</v>
       </c>
       <c r="H39" s="60"/>
       <c r="I39" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J39" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="M39" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="N39" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="O39" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="39"/>
@@ -6734,17 +6731,17 @@
       <c r="T39" s="57"/>
       <c r="U39" s="57"/>
       <c r="V39" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X39" s="32"/>
       <c r="Y39" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z39" s="124" t="s">
         <v>176</v>
-      </c>
-      <c r="Z39" s="124" t="s">
-        <v>177</v>
       </c>
       <c r="AA39" s="122"/>
       <c r="AB39" s="122"/>
@@ -6754,172 +6751,172 @@
     </row>
     <row r="40" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B40" s="80"/>
       <c r="C40" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="92" t="s">
         <v>178</v>
-      </c>
-      <c r="D40" s="92" t="s">
-        <v>179</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="67"/>
       <c r="I40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J40" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="J40" s="73" t="s">
+      <c r="K40" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="M40" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="M40" s="17" t="s">
+      <c r="N40" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="N40" s="39" t="s">
+      <c r="O40" s="39" t="s">
         <v>185</v>
-      </c>
-      <c r="O40" s="39" t="s">
-        <v>186</v>
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="R40" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="R40" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="S40" s="57"/>
       <c r="T40" s="57"/>
       <c r="U40" s="57"/>
       <c r="V40" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X40" s="42"/>
       <c r="Y40" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z40" s="121" t="s">
         <v>189</v>
-      </c>
-      <c r="Z40" s="121" t="s">
-        <v>190</v>
       </c>
       <c r="AA40" s="122"/>
       <c r="AB40" s="123"/>
       <c r="AD40" s="125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE40" s="123"/>
     </row>
     <row r="41" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="B41" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="G41" s="44" t="s">
+      <c r="H41" s="44" t="s">
         <v>334</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="I41" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="J41" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="K41" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="L41" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="I41" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="J41" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="K41" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="L41" s="44" t="s">
+      <c r="M41" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="N41" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="O41" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="P41" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="M41" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="N41" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="O41" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="P41" s="44" t="s">
+      <c r="Q41" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="Q41" s="44" t="s">
+      <c r="R41" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="R41" s="44" t="s">
+      <c r="S41" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="T41" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="U41" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="V41" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="S41" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="T41" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="U41" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="V41" s="44" t="s">
+      <c r="W41" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="W41" s="44" t="s">
-        <v>341</v>
-      </c>
       <c r="X41" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y41" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="Y41" s="48" t="s">
+      <c r="Z41" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="Z41" s="49" t="s">
+      <c r="AA41" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="AA41" s="50" t="s">
+      <c r="AB41" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="AB41" s="51" t="s">
+      <c r="AC41" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="AC41" s="52" t="s">
-        <v>230</v>
-      </c>
       <c r="AD41" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE41" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="AE41" s="49" t="s">
-        <v>233</v>
-      </c>
       <c r="AF41" s="120" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>74</v>
@@ -6929,10 +6926,10 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E42" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" s="89" t="s">
         <v>249</v>
-      </c>
-      <c r="F42" s="89" t="s">
-        <v>250</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="61"/>
@@ -6981,7 +6978,7 @@
     <row r="43" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>74</v>
@@ -6991,10 +6988,10 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E43" s="93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F43" s="89" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="61"/>
@@ -7043,7 +7040,7 @@
     <row r="44" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>74</v>
@@ -7053,10 +7050,10 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E44" s="93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F44" s="89" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="61"/>
@@ -7105,7 +7102,7 @@
     <row r="45" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>74</v>
@@ -7115,10 +7112,10 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E45" s="93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F45" s="89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="61"/>
